--- a/Output/1988/Louisiana/Louisiana.xlsx
+++ b/Output/1988/Louisiana/Louisiana.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="340" yWindow="460" windowWidth="28100" windowHeight="17040" xr2:uid="{8240CA36-707E-7746-9DF4-D300F38BB622}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Z$320</definedName>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="446">
   <si>
     <t>State</t>
   </si>
@@ -1364,11 +1364,7 @@
     <t>87 (Ascension Parish &amp; Donaldsonvllle); Outside TV markets (Gramercy &amp; Lutcher)</t>
   </si>
   <si>
-    <t>31 (Mandevllle &amp; portions of St. Tammany Parish); Outside TV markets (Madisonville &amp; portions of St. Tammany Parish)</t>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>(Mandevllle &amp; portions of St. Tammany Parish); Outside TV markets (Madisonville &amp; portions of St. Tammany Parish)</t>
   </si>
 </sst>
 </file>
@@ -1737,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F6ECB0-3AEF-4D40-B00F-141362288947}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D39954-FA52-474E-95CB-C446BBB6BF33}">
   <dimension ref="A1:Z320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -3771,7 +3767,7 @@
         <v>30256</v>
       </c>
       <c r="G28">
-        <v>860</v>
+        <v>452</v>
       </c>
       <c r="H28" t="s">
         <v>28</v>
@@ -3919,7 +3915,7 @@
         <v>30286</v>
       </c>
       <c r="G30">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="H30" t="s">
         <v>28</v>
@@ -3993,7 +3989,7 @@
         <v>30225</v>
       </c>
       <c r="G31">
-        <v>492</v>
+        <v>723</v>
       </c>
       <c r="H31" t="s">
         <v>28</v>
@@ -5547,7 +5543,7 @@
         <v>29221</v>
       </c>
       <c r="G52" s="1">
-        <v>2799</v>
+        <v>9078</v>
       </c>
       <c r="H52" s="1">
         <v>2799</v>
@@ -7248,8 +7244,8 @@
       <c r="F75" s="2">
         <v>24167</v>
       </c>
-      <c r="G75" s="1">
-        <v>20989</v>
+      <c r="G75">
+        <v>478</v>
       </c>
       <c r="H75" t="s">
         <v>28</v>
@@ -7322,8 +7318,8 @@
       <c r="F76" s="2">
         <v>28856</v>
       </c>
-      <c r="G76" s="1">
-        <v>20989</v>
+      <c r="G76">
+        <v>478</v>
       </c>
       <c r="H76" t="s">
         <v>28</v>
@@ -7365,10 +7361,10 @@
         <v>0</v>
       </c>
       <c r="U76" s="1">
-        <v>9000</v>
+        <v>1200</v>
       </c>
       <c r="V76" s="1">
-        <v>6000</v>
+        <v>1250</v>
       </c>
       <c r="W76">
         <v>30</v>
@@ -8506,8 +8502,8 @@
       <c r="F92" s="2">
         <v>30599</v>
       </c>
-      <c r="G92" s="1">
-        <v>6100</v>
+      <c r="G92">
+        <v>470</v>
       </c>
       <c r="H92" t="s">
         <v>28</v>
@@ -11976,7 +11972,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="F139" s="2">
         <v>20821</v>
@@ -14934,11 +14930,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Z321">
+  <sortState ref="A2:Z323">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Output/1988/Louisiana/Louisiana.xlsx
+++ b/Output/1988/Louisiana/Louisiana.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2658" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2654" uniqueCount="446">
   <si>
     <t>State</t>
   </si>
@@ -143,9 +143,6 @@
     <t>ACADIA PARISH (WARD 7)</t>
   </si>
   <si>
-    <t>See EUNICE</t>
-  </si>
-  <si>
     <t>ADDIS</t>
   </si>
   <si>
@@ -521,850 +518,861 @@
     <t>GOLDEN MEADOW</t>
   </si>
   <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>GOODPINE</t>
+  </si>
+  <si>
+    <t>See JENA, LA</t>
+  </si>
+  <si>
+    <t>GRAMBLING</t>
+  </si>
+  <si>
+    <t>See also RUSTON, LA</t>
+  </si>
+  <si>
+    <t>GRAMERCY</t>
+  </si>
+  <si>
+    <t>GRAND COTEAU</t>
+  </si>
+  <si>
+    <t>See SUNSET, LA</t>
+  </si>
+  <si>
+    <t>GRAND ISLE</t>
+  </si>
+  <si>
+    <t>GRANT PARISH</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>See HOUMA, LA</t>
+  </si>
+  <si>
+    <t>GRAYSON</t>
+  </si>
+  <si>
+    <t>GREENWOOD</t>
+  </si>
+  <si>
+    <t>GRETNA</t>
+  </si>
+  <si>
+    <t>See JEFFERSON PARISH, LA</t>
+  </si>
+  <si>
+    <t>HAHNVILLE</t>
+  </si>
+  <si>
+    <t>HAMMOND</t>
+  </si>
+  <si>
+    <t>HAUGHTON</t>
+  </si>
+  <si>
+    <t>HAYES</t>
+  </si>
+  <si>
+    <t>HAYNESVILLE</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>See ST. MARTINVILLE, LA</t>
+  </si>
+  <si>
+    <t>HESSMER</t>
+  </si>
+  <si>
+    <t>See MARKSVILLE, LA</t>
+  </si>
+  <si>
+    <t>HODGE</t>
+  </si>
+  <si>
+    <t>HOLDEN</t>
+  </si>
+  <si>
+    <t>HOMER</t>
+  </si>
+  <si>
+    <t>HORNBECK</t>
+  </si>
+  <si>
+    <t>HOUMA</t>
+  </si>
+  <si>
+    <t>IBERIA PARISH</t>
+  </si>
+  <si>
+    <t>See NEW IBERIA, LA</t>
+  </si>
+  <si>
+    <t>IBERVILLE PARISH (portions)</t>
+  </si>
+  <si>
+    <t>INDEPENDENCE</t>
+  </si>
+  <si>
+    <t>See HAMMOND, LA</t>
+  </si>
+  <si>
+    <t>IOTA</t>
+  </si>
+  <si>
+    <t>IOWA</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>See CLINTON, LA</t>
+  </si>
+  <si>
+    <t>JACKSON PARISH</t>
+  </si>
+  <si>
+    <t>JEANERETTE</t>
+  </si>
+  <si>
+    <t>JEFFERSON PARISH</t>
+  </si>
+  <si>
+    <t>JENA</t>
+  </si>
+  <si>
+    <t>JENNINGS</t>
+  </si>
+  <si>
+    <t>JONESBORO</t>
+  </si>
+  <si>
+    <t>JONESVILLE</t>
+  </si>
+  <si>
+    <t>JOYCE</t>
+  </si>
+  <si>
+    <t>See WINNFIELD, LA</t>
+  </si>
+  <si>
+    <t>JUNCTION CITY</t>
+  </si>
+  <si>
+    <t>KAPLAN</t>
+  </si>
+  <si>
+    <t>KENNER</t>
+  </si>
+  <si>
+    <t>KENTWOOD</t>
+  </si>
+  <si>
+    <t>KILBOURNE</t>
+  </si>
+  <si>
+    <t>Killian</t>
+  </si>
+  <si>
+    <t>KINDER</t>
+  </si>
+  <si>
+    <t>Below 100 (Elton &amp; Kinder); Outside TV markets (Oberlin)</t>
+  </si>
+  <si>
+    <t>KOLIN</t>
+  </si>
+  <si>
+    <t>KROTZ SPRINGS</t>
+  </si>
+  <si>
+    <t>LA PLACE</t>
+  </si>
+  <si>
+    <t>LA SALLE PARISH</t>
+  </si>
+  <si>
+    <t>LA SALLE PARISH (northern portion)</t>
+  </si>
+  <si>
+    <t>See URANIA, LA</t>
+  </si>
+  <si>
+    <t>LACASSINE</t>
+  </si>
+  <si>
+    <t>LAFAYETTE</t>
+  </si>
+  <si>
+    <t>LAFOURCHE PARISH</t>
+  </si>
+  <si>
+    <t>See also HOUMA, LA</t>
+  </si>
+  <si>
+    <t>LAFOURCHE PARISH (western portion)</t>
+  </si>
+  <si>
+    <t>LAKE ARTHUR</t>
+  </si>
+  <si>
+    <t>LAKE BRUIN</t>
+  </si>
+  <si>
+    <t>See ST. Joseph, LA</t>
+  </si>
+  <si>
+    <t>LAKE CHARLES</t>
+  </si>
+  <si>
+    <t>LAKE COTILE</t>
+  </si>
+  <si>
+    <t>See HOTWELLS, LA</t>
+  </si>
+  <si>
+    <t>LAKE PROVIDENCE</t>
+  </si>
+  <si>
+    <t>LAKE ST. JOHN</t>
+  </si>
+  <si>
+    <t>LAROSE</t>
+  </si>
+  <si>
+    <t>LE BLEU</t>
+  </si>
+  <si>
+    <t>LECOMPTE</t>
+  </si>
+  <si>
+    <t>LEESVILLE</t>
+  </si>
+  <si>
+    <t>LEONVILLE</t>
+  </si>
+  <si>
+    <t>See OPELOUSAS, LA</t>
+  </si>
+  <si>
+    <t>LIVINGSTON</t>
+  </si>
+  <si>
+    <t>See HOLDEN, LA</t>
+  </si>
+  <si>
+    <t>LIVINGSTON PARISH</t>
+  </si>
+  <si>
+    <t>See DENHAM SPRINGS, LA</t>
+  </si>
+  <si>
+    <t>Livingston Parish (southern portion)</t>
+  </si>
+  <si>
+    <t>LIVONIA</t>
+  </si>
+  <si>
+    <t>LOCKPORT</t>
+  </si>
+  <si>
+    <t>LOGANSPORT</t>
+  </si>
+  <si>
+    <t>LOREAUVILLE</t>
+  </si>
+  <si>
+    <t>LUTING</t>
+  </si>
+  <si>
+    <t>LUTCHER</t>
+  </si>
+  <si>
+    <t>MADISON PARISH</t>
+  </si>
+  <si>
+    <t>See TALLULAH, LA</t>
+  </si>
+  <si>
+    <t>MADISONVILLE</t>
+  </si>
+  <si>
+    <t>See MANDEVILLE, LA</t>
+  </si>
+  <si>
+    <t>MAMOU</t>
+  </si>
+  <si>
+    <t>MANDEVILLE</t>
+  </si>
+  <si>
+    <t>MANGHAM</t>
+  </si>
+  <si>
+    <t>MANSFIELD</t>
+  </si>
+  <si>
+    <t>MANSURA</t>
+  </si>
+  <si>
+    <t>MANY</t>
+  </si>
+  <si>
+    <t>MARINGOUIN</t>
+  </si>
+  <si>
+    <t>MARION</t>
+  </si>
+  <si>
+    <t>MARKSVILLE</t>
+  </si>
+  <si>
+    <t>MAURICE</t>
+  </si>
+  <si>
+    <t>MELVILLE</t>
+  </si>
+  <si>
+    <t>MIDWAY</t>
+  </si>
+  <si>
+    <t>MILTON</t>
+  </si>
+  <si>
+    <t>MINDEN</t>
+  </si>
+  <si>
+    <t>MONROE</t>
+  </si>
+  <si>
+    <t>MONTGOMERY</t>
+  </si>
+  <si>
+    <t>MOORINGSPORT</t>
+  </si>
+  <si>
+    <t>MOREAUVILLE</t>
+  </si>
+  <si>
+    <t>MORGAN CITY</t>
+  </si>
+  <si>
+    <t>MORGANZA</t>
+  </si>
+  <si>
+    <t>See NEW ROADS, LA</t>
+  </si>
+  <si>
+    <t>MOSS BLUFF</t>
+  </si>
+  <si>
+    <t>See WESTLAKE, LA</t>
+  </si>
+  <si>
+    <t>MOSSVILLE</t>
+  </si>
+  <si>
+    <t>See SULPHUR, LA</t>
+  </si>
+  <si>
+    <t>NAPOLEONVILLE</t>
+  </si>
+  <si>
+    <t>NATCHITOCHES</t>
+  </si>
+  <si>
+    <t>NATCHITOCHES PARISH</t>
+  </si>
+  <si>
+    <t>NEW IBERIA</t>
+  </si>
+  <si>
+    <t>NEW ORLEANS</t>
+  </si>
+  <si>
+    <t>NEW ROADS</t>
+  </si>
+  <si>
+    <t>NEWELLTON</t>
+  </si>
+  <si>
+    <t>NEWLLANO</t>
+  </si>
+  <si>
+    <t>See LEESVILLE, LA</t>
+  </si>
+  <si>
+    <t>NORCO</t>
+  </si>
+  <si>
+    <t>See DESTREHAN, LA</t>
+  </si>
+  <si>
+    <t>NORTH HODGE</t>
+  </si>
+  <si>
+    <t>OAK GROVE</t>
+  </si>
+  <si>
+    <t>OAK RIDGE</t>
+  </si>
+  <si>
+    <t>OAKDALE</t>
+  </si>
+  <si>
+    <t>OBERLIN</t>
+  </si>
+  <si>
+    <t>OIL CITY</t>
+  </si>
+  <si>
+    <t>OLLA</t>
+  </si>
+  <si>
+    <t>OPELOUSAS</t>
+  </si>
+  <si>
+    <t>ORLEANS PARISH</t>
+  </si>
+  <si>
+    <t>See NEW ORLEANS, LA</t>
+  </si>
+  <si>
+    <t>Osyka</t>
+  </si>
+  <si>
+    <t>See KENTWOOD, LA</t>
+  </si>
+  <si>
+    <t>OUACHITA PARISH</t>
+  </si>
+  <si>
+    <t>See also WEST MONROE, LA</t>
+  </si>
+  <si>
+    <t>PARKS</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>PAULINA</t>
+  </si>
+  <si>
+    <t>PEARL RIVER</t>
+  </si>
+  <si>
+    <t>See SLIDELL, LA</t>
+  </si>
+  <si>
+    <t>PIERRE PART</t>
+  </si>
+  <si>
+    <t>PINEVILLE</t>
+  </si>
+  <si>
+    <t>PLAIN DEALING</t>
+  </si>
+  <si>
+    <t>PLAQUEMINE</t>
+  </si>
+  <si>
+    <t>PLAUCHEVILLE</t>
+  </si>
+  <si>
+    <t>See COTTONPORT, LA</t>
+  </si>
+  <si>
+    <t>POINTE COUPEE PARISH</t>
+  </si>
+  <si>
+    <t>See also NEW ROADS, LA</t>
+  </si>
+  <si>
+    <t>POLLOCK</t>
+  </si>
+  <si>
+    <t>PONCHATOULA</t>
+  </si>
+  <si>
+    <t>PORT ALLEN</t>
+  </si>
+  <si>
+    <t>Included with Baker, LA</t>
+  </si>
+  <si>
+    <t>PORT BARRE</t>
+  </si>
+  <si>
+    <t>PORT SULPHUR</t>
+  </si>
+  <si>
+    <t>RAPIDES PARISH</t>
+  </si>
+  <si>
+    <t>RAYNE</t>
+  </si>
+  <si>
+    <t>RAYVILLE</t>
+  </si>
+  <si>
+    <t>REDDELL</t>
+  </si>
+  <si>
+    <t>RESERVE</t>
+  </si>
+  <si>
+    <t>See LA PUCE, LA</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>RIDGECREST</t>
+  </si>
+  <si>
+    <t>RINGGOLD</t>
+  </si>
+  <si>
+    <t>ROANOKE</t>
+  </si>
+  <si>
+    <t>ROSEDALE</t>
+  </si>
+  <si>
+    <t>ROSEUND</t>
+  </si>
+  <si>
+    <t>RUSTON</t>
+  </si>
+  <si>
+    <t>SABINE PARISH</t>
+  </si>
+  <si>
+    <t>ST. CHARLES PARISH</t>
+  </si>
+  <si>
+    <t>ST. FRANCISVILLE</t>
+  </si>
+  <si>
+    <t>ST. JAMES</t>
+  </si>
+  <si>
+    <t>ST. JAMES PARISH (portions)</t>
+  </si>
+  <si>
+    <t>ST. JOHN THE BAPTIST PARISH (East Bank)</t>
+  </si>
+  <si>
+    <t>ST. JOSEPH</t>
+  </si>
+  <si>
+    <t>ST. LANDRY PARISH (portions)</t>
+  </si>
+  <si>
+    <t>ST. UNDRY PARISH (portions)</t>
+  </si>
+  <si>
+    <t>See also OPELOUSAS, LA</t>
+  </si>
+  <si>
+    <t>ST. MARTIN PARISH</t>
+  </si>
+  <si>
+    <t>See MARTINVILLE, LA</t>
+  </si>
+  <si>
+    <t>ST. MARTINVILLE</t>
+  </si>
+  <si>
+    <t>ST. MARY PARISH</t>
+  </si>
+  <si>
+    <t>See FRANKLIN, LA</t>
+  </si>
+  <si>
+    <t>See also MORGAN CITY, LA</t>
+  </si>
+  <si>
+    <t>ST. ROSE</t>
+  </si>
+  <si>
+    <t>ST. TAMMANY PARISH</t>
+  </si>
+  <si>
+    <t>SAREPTA</t>
+  </si>
+  <si>
+    <t>See COTTON VALLEY, LA</t>
+  </si>
+  <si>
+    <t>SCHRIEVER</t>
+  </si>
+  <si>
+    <t>SCOTT</t>
+  </si>
+  <si>
+    <t>SHREVEPORT</t>
+  </si>
+  <si>
+    <t>SIBLEY</t>
+  </si>
+  <si>
+    <t>SIMMESPORT</t>
+  </si>
+  <si>
+    <t>SLAUGHTER</t>
+  </si>
+  <si>
+    <t>SLIDELL</t>
+  </si>
+  <si>
+    <t>SORRENTO</t>
+  </si>
+  <si>
+    <t>See GONZALES, LA</t>
+  </si>
+  <si>
+    <t>South Mansfield</t>
+  </si>
+  <si>
+    <t>See MANSFIELD, LA</t>
+  </si>
+  <si>
+    <t>SPOKANE</t>
+  </si>
+  <si>
+    <t>Springfield</t>
+  </si>
+  <si>
+    <t>SPRINGHILL</t>
+  </si>
+  <si>
+    <t>START</t>
+  </si>
+  <si>
+    <t>STEPHENSVILLE</t>
+  </si>
+  <si>
+    <t>SULPHUR</t>
+  </si>
+  <si>
+    <t>SUNSET</t>
+  </si>
+  <si>
+    <t>TALLULAH</t>
+  </si>
+  <si>
+    <t>TANGIPAHOA PARISH</t>
+  </si>
+  <si>
+    <t>TERREBONNE PARISH</t>
+  </si>
+  <si>
+    <t>THIBODAUX</t>
+  </si>
+  <si>
+    <t>TICKFAW</t>
+  </si>
+  <si>
+    <t>TRIUMPH</t>
+  </si>
+  <si>
+    <t>TULLOS</t>
+  </si>
+  <si>
+    <t>URANIA</t>
+  </si>
+  <si>
+    <t>Included with Jena, LA</t>
+  </si>
+  <si>
+    <t>VACHERIE</t>
+  </si>
+  <si>
+    <t>VENICE</t>
+  </si>
+  <si>
+    <t>VERMILION PARISH</t>
+  </si>
+  <si>
+    <t>VERNON PARISH</t>
+  </si>
+  <si>
+    <t>VIDALIA</t>
+  </si>
+  <si>
+    <t>VIDRINE</t>
+  </si>
+  <si>
+    <t>VIENNA</t>
+  </si>
+  <si>
+    <t>See RUSTON, LA</t>
+  </si>
+  <si>
+    <t>VILLE PLATTE</t>
+  </si>
+  <si>
+    <t>VINTON</t>
+  </si>
+  <si>
+    <t>VIVIAN</t>
+  </si>
+  <si>
+    <t>WALKER (TOWN)</t>
+  </si>
+  <si>
+    <t>WASHINGTON</t>
+  </si>
+  <si>
+    <t>WASHINGTON PARISH</t>
+  </si>
+  <si>
+    <t>See BOGALUSA, LA</t>
+  </si>
+  <si>
+    <t>WATERPROOF</t>
+  </si>
+  <si>
+    <t>WELSH</t>
+  </si>
+  <si>
+    <t>West Baton Rouge Parish</t>
+  </si>
+  <si>
+    <t>West Feliciana Parish</t>
+  </si>
+  <si>
+    <t>WEST MONROE</t>
+  </si>
+  <si>
+    <t>WESTLAKE</t>
+  </si>
+  <si>
+    <t>WESTWEGO</t>
+  </si>
+  <si>
+    <t>WINN PARISH</t>
+  </si>
+  <si>
+    <t>WINNFIELD</t>
+  </si>
+  <si>
+    <t>WINNSBORO</t>
+  </si>
+  <si>
+    <t>WINNSBORO TWP.</t>
+  </si>
+  <si>
+    <t>See WINNSBORO, LA</t>
+  </si>
+  <si>
+    <t>WOODWORTH</t>
+  </si>
+  <si>
+    <t>ZACHARY</t>
+  </si>
+  <si>
+    <t>ZWOLLE</t>
+  </si>
+  <si>
+    <t>Included with Many, LA</t>
+  </si>
+  <si>
+    <t>BREAUX BRIDGE</t>
+  </si>
+  <si>
+    <t>See FERRIDAY, LA</t>
+  </si>
+  <si>
+    <t>COTTON VALLEY</t>
+  </si>
+  <si>
+    <t>ST. BERNARD PARISH</t>
+  </si>
+  <si>
+    <t>31 (portions); Below 100 (portions)</t>
+  </si>
+  <si>
+    <t>WHITE CASTLE</t>
+  </si>
+  <si>
+    <t>COTTONPORT</t>
+  </si>
+  <si>
+    <t>See SPOKANE, LA</t>
+  </si>
+  <si>
+    <t>See WEST MONROE, LA</t>
+  </si>
+  <si>
+    <t>See NATCHITOCHES, LA</t>
+  </si>
+  <si>
+    <t>See WELSH, LA</t>
+  </si>
+  <si>
+    <t>See AMITE CITY, LA</t>
+  </si>
+  <si>
+    <t>See also DESTREHAN, LA</t>
+  </si>
+  <si>
+    <t>See also SLIDELL, LA</t>
+  </si>
+  <si>
+    <t>See also THIBODAUX, LA</t>
+  </si>
+  <si>
+    <t>See also FRANKLINTON, LA</t>
+  </si>
+  <si>
+    <t>See ST. FRANCISVILLE, LA</t>
+  </si>
+  <si>
+    <t>87 (Ascension Parish &amp; Donaldsonvllle); Outside TV markets (Gramercy &amp; Lutcher)</t>
+  </si>
+  <si>
+    <t>See EUNICE, LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>See FRENCH SETTLEMENT, LA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOTWELLS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>31 (Cut Off, portions of Lafourche Parish &amp; Larose); Outside TV markets (Galliano, Golden Meadow, Grand Isle, portions of Lafourche Parish)</t>
-  </si>
-  <si>
-    <t>GONZALES</t>
-  </si>
-  <si>
-    <t>GOODPINE</t>
-  </si>
-  <si>
-    <t>See JENA, LA</t>
-  </si>
-  <si>
-    <t>GRAMBLING</t>
-  </si>
-  <si>
-    <t>See also RUSTON, LA</t>
-  </si>
-  <si>
-    <t>GRAMERCY</t>
-  </si>
-  <si>
-    <t>GRAND COTEAU</t>
-  </si>
-  <si>
-    <t>See SUNSET, LA</t>
-  </si>
-  <si>
-    <t>GRAND ISLE</t>
-  </si>
-  <si>
-    <t>GRANT PARISH</t>
-  </si>
-  <si>
-    <t>GRAY</t>
-  </si>
-  <si>
-    <t>See HOUMA, LA</t>
-  </si>
-  <si>
-    <t>GRAYSON</t>
-  </si>
-  <si>
-    <t>GREENWOOD</t>
-  </si>
-  <si>
-    <t>GRETNA</t>
-  </si>
-  <si>
-    <t>See JEFFERSON PARISH, LA</t>
-  </si>
-  <si>
-    <t>HAHNVILLE</t>
-  </si>
-  <si>
-    <t>HAMMOND</t>
-  </si>
-  <si>
-    <t>HAUGHTON</t>
-  </si>
-  <si>
-    <t>HAYES</t>
-  </si>
-  <si>
-    <t>HAYNESVILLE</t>
-  </si>
-  <si>
-    <t>HENDERSON</t>
-  </si>
-  <si>
-    <t>See ST. MARTINVILLE, LA</t>
-  </si>
-  <si>
-    <t>HESSMER</t>
-  </si>
-  <si>
-    <t>See MARKSVILLE, LA</t>
-  </si>
-  <si>
-    <t>HODGE</t>
-  </si>
-  <si>
-    <t>HOLDEN</t>
-  </si>
-  <si>
-    <t>HOMER</t>
-  </si>
-  <si>
-    <t>HORNBECK</t>
-  </si>
-  <si>
-    <t>HQTWELLS</t>
-  </si>
-  <si>
-    <t>HOUMA</t>
-  </si>
-  <si>
-    <t>IBERIA PARISH</t>
-  </si>
-  <si>
-    <t>See NEW IBERIA, LA</t>
-  </si>
-  <si>
-    <t>IBERVILLE PARISH (portions)</t>
-  </si>
-  <si>
-    <t>INDEPENDENCE</t>
-  </si>
-  <si>
-    <t>See HAMMOND, LA</t>
-  </si>
-  <si>
-    <t>IOTA</t>
-  </si>
-  <si>
-    <t>IOWA</t>
-  </si>
-  <si>
-    <t>JACKSON</t>
-  </si>
-  <si>
-    <t>See CLINTON, LA</t>
-  </si>
-  <si>
-    <t>JACKSON PARISH</t>
-  </si>
-  <si>
-    <t>JEANERETTE</t>
-  </si>
-  <si>
-    <t>JEFFERSON PARISH</t>
-  </si>
-  <si>
-    <t>JENA</t>
-  </si>
-  <si>
-    <t>JENNINGS</t>
-  </si>
-  <si>
-    <t>JONESBORO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99 (portions of Jack-son Parish); Below 100 (East Hodge, portions of Jackson Parish); Outside TV /markets (Hodge, Jonesboro, North Flodge, portions of Jackson Parish), </t>
-  </si>
-  <si>
-    <t>JONESVILLE</t>
-  </si>
-  <si>
-    <t>JOYCE</t>
-  </si>
-  <si>
-    <t>See WINNFIELD, LA</t>
-  </si>
-  <si>
-    <t>JUNCTION CITY</t>
-  </si>
-  <si>
-    <t>KAPLAN</t>
-  </si>
-  <si>
-    <t>KENNER</t>
-  </si>
-  <si>
-    <t>KENTWOOD</t>
-  </si>
-  <si>
-    <t>KILBOURNE</t>
-  </si>
-  <si>
-    <t>Killian</t>
-  </si>
-  <si>
-    <t>KINDER</t>
-  </si>
-  <si>
-    <t>Below 100 (Elton &amp; Kinder); Outside TV markets (Oberlin)</t>
-  </si>
-  <si>
-    <t>KOLIN</t>
-  </si>
-  <si>
-    <t>KROTZ SPRINGS</t>
-  </si>
-  <si>
-    <t>LA PLACE</t>
-  </si>
-  <si>
-    <t>LA SALLE PARISH</t>
-  </si>
-  <si>
-    <t>LA SALLE PARISH (northern portion)</t>
-  </si>
-  <si>
-    <t>See URANIA, LA</t>
-  </si>
-  <si>
-    <t>LACASSINE</t>
-  </si>
-  <si>
-    <t>LAFAYETTE</t>
-  </si>
-  <si>
-    <t>LAFOURCHE PARISH</t>
-  </si>
-  <si>
-    <t>See also HOUMA, LA</t>
-  </si>
-  <si>
-    <t>LAFOURCHE PARISH (western portion)</t>
-  </si>
-  <si>
-    <t>LAKE ARTHUR</t>
-  </si>
-  <si>
-    <t>LAKE BRUIN</t>
-  </si>
-  <si>
-    <t>See ST. Joseph, LA</t>
-  </si>
-  <si>
-    <t>LAKE CHARLES</t>
-  </si>
-  <si>
-    <t>LAKE COTILE</t>
-  </si>
-  <si>
-    <t>See HOTWELLS, LA</t>
-  </si>
-  <si>
-    <t>LAKE PROVIDENCE</t>
-  </si>
-  <si>
-    <t>LAKE ST. JOHN</t>
-  </si>
-  <si>
-    <t>LAROSE</t>
-  </si>
-  <si>
-    <t>LE BLEU</t>
-  </si>
-  <si>
-    <t>LECOMPTE</t>
-  </si>
-  <si>
-    <t>LEESVILLE</t>
-  </si>
-  <si>
-    <t>LEONVILLE</t>
-  </si>
-  <si>
-    <t>See OPELOUSAS, LA</t>
-  </si>
-  <si>
-    <t>LIVINGSTON</t>
-  </si>
-  <si>
-    <t>See HOLDEN, LA</t>
-  </si>
-  <si>
-    <t>LIVINGSTON PARISH</t>
-  </si>
-  <si>
-    <t>See DENHAM SPRINGS, LA</t>
-  </si>
-  <si>
-    <t>Livingston Parish (southern portion)</t>
-  </si>
-  <si>
-    <t>LIVONIA</t>
-  </si>
-  <si>
-    <t>LOCKPORT</t>
-  </si>
-  <si>
-    <t>LOGANSPORT</t>
-  </si>
-  <si>
-    <t>LOREAUVILLE</t>
-  </si>
-  <si>
-    <t>LUTING</t>
-  </si>
-  <si>
-    <t>LUTCHER</t>
-  </si>
-  <si>
-    <t>MADISON PARISH</t>
-  </si>
-  <si>
-    <t>See TALLULAH, LA</t>
-  </si>
-  <si>
-    <t>MADISONVILLE</t>
-  </si>
-  <si>
-    <t>See MANDEVILLE, LA</t>
-  </si>
-  <si>
-    <t>MAMOU</t>
-  </si>
-  <si>
-    <t>MANDEVILLE</t>
-  </si>
-  <si>
-    <t>MANGHAM</t>
-  </si>
-  <si>
-    <t>MANSFIELD</t>
-  </si>
-  <si>
-    <t>MANSURA</t>
-  </si>
-  <si>
-    <t>MANY</t>
-  </si>
-  <si>
-    <t>MARINGOUIN</t>
-  </si>
-  <si>
-    <t>MARION</t>
-  </si>
-  <si>
-    <t>MARKSVILLE</t>
-  </si>
-  <si>
-    <t>MAURICE</t>
-  </si>
-  <si>
-    <t>MELVILLE</t>
-  </si>
-  <si>
-    <t>MIDWAY</t>
-  </si>
-  <si>
-    <t>MILTON</t>
-  </si>
-  <si>
-    <t>MINDEN</t>
-  </si>
-  <si>
-    <t>MONROE</t>
-  </si>
-  <si>
-    <t>MONTGOMERY</t>
-  </si>
-  <si>
-    <t>MOORINGSPORT</t>
-  </si>
-  <si>
-    <t>MOREAUVILLE</t>
-  </si>
-  <si>
-    <t>MORGAN CITY</t>
-  </si>
-  <si>
-    <t>MORGANZA</t>
-  </si>
-  <si>
-    <t>See NEW ROADS, LA</t>
-  </si>
-  <si>
-    <t>MOSS BLUFF</t>
-  </si>
-  <si>
-    <t>See WESTLAKE, LA</t>
-  </si>
-  <si>
-    <t>MOSSVILLE</t>
-  </si>
-  <si>
-    <t>See SULPHUR, LA</t>
-  </si>
-  <si>
-    <t>NAPOLEONVILLE</t>
-  </si>
-  <si>
-    <t>NATCHITOCHES</t>
-  </si>
-  <si>
-    <t>NATCHITOCHES PARISH</t>
-  </si>
-  <si>
-    <t>NEW IBERIA</t>
-  </si>
-  <si>
-    <t>NEW ORLEANS</t>
-  </si>
-  <si>
-    <t>NEW ROADS</t>
-  </si>
-  <si>
-    <t>NEWELLTON</t>
-  </si>
-  <si>
-    <t>NEWLLANO</t>
-  </si>
-  <si>
-    <t>See LEESVILLE, LA</t>
-  </si>
-  <si>
-    <t>NORCO</t>
-  </si>
-  <si>
-    <t>See DESTREHAN, LA</t>
-  </si>
-  <si>
-    <t>NORTH HODGE</t>
-  </si>
-  <si>
-    <t>OAK GROVE</t>
-  </si>
-  <si>
-    <t>OAK RIDGE</t>
-  </si>
-  <si>
-    <t>OAKDALE</t>
-  </si>
-  <si>
-    <t>OBERLIN</t>
-  </si>
-  <si>
-    <t>OIL CITY</t>
-  </si>
-  <si>
-    <t>OLLA</t>
-  </si>
-  <si>
-    <t>OPELOUSAS</t>
-  </si>
-  <si>
-    <t>ORLEANS PARISH</t>
-  </si>
-  <si>
-    <t>See NEW ORLEANS, LA</t>
-  </si>
-  <si>
-    <t>Osyka</t>
-  </si>
-  <si>
-    <t>See KENTWOOD, LA</t>
-  </si>
-  <si>
-    <t>OUACHITA PARISH</t>
-  </si>
-  <si>
-    <t>See also WEST MONROE, LA</t>
-  </si>
-  <si>
-    <t>PARKS</t>
-  </si>
-  <si>
-    <t>PATTERSON</t>
-  </si>
-  <si>
-    <t>PAULINA</t>
-  </si>
-  <si>
-    <t>PEARL RIVER</t>
-  </si>
-  <si>
-    <t>See SLIDELL, LA</t>
-  </si>
-  <si>
-    <t>PIERRE PART</t>
-  </si>
-  <si>
-    <t>PINEVILLE</t>
-  </si>
-  <si>
-    <t>PLAIN DEALING</t>
-  </si>
-  <si>
-    <t>PLAQUEMINE</t>
-  </si>
-  <si>
-    <t>PLAUCHEVILLE</t>
-  </si>
-  <si>
-    <t>See COTTONPORT, LA</t>
-  </si>
-  <si>
-    <t>POINTE COUPEE PARISH</t>
-  </si>
-  <si>
-    <t>See also NEW ROADS, LA</t>
-  </si>
-  <si>
-    <t>POLLOCK</t>
-  </si>
-  <si>
-    <t>PONCHATOULA</t>
-  </si>
-  <si>
-    <t>PORT ALLEN</t>
-  </si>
-  <si>
-    <t>Included with Baker, LA</t>
-  </si>
-  <si>
-    <t>PORT BARRE</t>
-  </si>
-  <si>
-    <t>PORT SULPHUR</t>
-  </si>
-  <si>
-    <t>RAPIDES PARISH</t>
-  </si>
-  <si>
-    <t>RAYNE</t>
-  </si>
-  <si>
-    <t>RAYVILLE</t>
-  </si>
-  <si>
-    <t>REDDELL</t>
-  </si>
-  <si>
-    <t>RESERVE</t>
-  </si>
-  <si>
-    <t>See LA PUCE, LA</t>
-  </si>
-  <si>
-    <t>RICHMOND</t>
-  </si>
-  <si>
-    <t>RIDGECREST</t>
-  </si>
-  <si>
-    <t>RINGGOLD</t>
-  </si>
-  <si>
-    <t>ROANOKE</t>
-  </si>
-  <si>
-    <t>ROSEDALE</t>
-  </si>
-  <si>
-    <t>ROSEUND</t>
-  </si>
-  <si>
-    <t>RUSTON</t>
-  </si>
-  <si>
-    <t>SABINE PARISH</t>
-  </si>
-  <si>
-    <t>ST. CHARLES PARISH</t>
-  </si>
-  <si>
-    <t>ST. FRANCISVILLE</t>
-  </si>
-  <si>
-    <t>ST. JAMES</t>
-  </si>
-  <si>
-    <t>ST. JAMES PARISH (portions)</t>
-  </si>
-  <si>
-    <t>ST. JOHN THE BAPTIST PARISH (East Bank)</t>
-  </si>
-  <si>
-    <t>ST. JOSEPH</t>
-  </si>
-  <si>
-    <t>ST. LANDRY PARISH (portions)</t>
-  </si>
-  <si>
-    <t>See EUNICE. LA</t>
-  </si>
-  <si>
-    <t>ST. UNDRY PARISH (portions)</t>
-  </si>
-  <si>
-    <t>See also OPELOUSAS, LA</t>
-  </si>
-  <si>
-    <t>ST. MARTIN PARISH</t>
-  </si>
-  <si>
-    <t>See MARTINVILLE, LA</t>
-  </si>
-  <si>
-    <t>ST. MARTINVILLE</t>
-  </si>
-  <si>
-    <t>87 (Henderson, portions of St</t>
-  </si>
-  <si>
-    <t>ST. MARY PARISH</t>
-  </si>
-  <si>
-    <t>See FRANKLIN, LA</t>
-  </si>
-  <si>
-    <t>See also MORGAN CITY, LA</t>
-  </si>
-  <si>
-    <t>ST. ROSE</t>
-  </si>
-  <si>
-    <t>ST. TAMMANY PARISH</t>
-  </si>
-  <si>
-    <t>SAREPTA</t>
-  </si>
-  <si>
-    <t>See COTTON VALLEY, LA</t>
-  </si>
-  <si>
-    <t>SCHRIEVER</t>
-  </si>
-  <si>
-    <t>SCOTT</t>
-  </si>
-  <si>
-    <t>SHREVEPORT</t>
-  </si>
-  <si>
-    <t>SIBLEY</t>
-  </si>
-  <si>
-    <t>SIMMESPORT</t>
-  </si>
-  <si>
-    <t>SLAUGHTER</t>
-  </si>
-  <si>
-    <t>SLIDELL</t>
-  </si>
-  <si>
-    <t>SORRENTO</t>
-  </si>
-  <si>
-    <t>See GONZALES, LA</t>
-  </si>
-  <si>
-    <t>South Mansfield</t>
-  </si>
-  <si>
-    <t>See MANSFIELD, LA</t>
-  </si>
-  <si>
-    <t>SPOKANE</t>
-  </si>
-  <si>
-    <t>Springfield</t>
-  </si>
-  <si>
-    <t>See FRENCH SETTLEMENT</t>
-  </si>
-  <si>
-    <t>SPRINGHILL</t>
-  </si>
-  <si>
-    <t>START</t>
-  </si>
-  <si>
-    <t>STEPHENSVILLE</t>
-  </si>
-  <si>
-    <t>SULPHUR</t>
-  </si>
-  <si>
-    <t>SUNSET</t>
-  </si>
-  <si>
-    <t>TALLULAH</t>
-  </si>
-  <si>
-    <t>TANGIPAHOA PARISH</t>
-  </si>
-  <si>
-    <t>TERREBONNE PARISH</t>
-  </si>
-  <si>
-    <t>THIBODAUX</t>
-  </si>
-  <si>
-    <t>TICKFAW</t>
-  </si>
-  <si>
-    <t>TRIUMPH</t>
-  </si>
-  <si>
-    <t>TULLOS</t>
-  </si>
-  <si>
-    <t>URANIA</t>
-  </si>
-  <si>
-    <t>Included with Jena, LA</t>
-  </si>
-  <si>
-    <t>VACHERIE</t>
-  </si>
-  <si>
-    <t>VENICE</t>
-  </si>
-  <si>
-    <t>VERMILION PARISH</t>
-  </si>
-  <si>
-    <t>VERNON PARISH</t>
-  </si>
-  <si>
-    <t>VIDALIA</t>
-  </si>
-  <si>
-    <t>VIDRINE</t>
-  </si>
-  <si>
-    <t>VIENNA</t>
-  </si>
-  <si>
-    <t>See RUSTON, LA</t>
-  </si>
-  <si>
-    <t>VILLE PLATTE</t>
-  </si>
-  <si>
-    <t>Below 100 (portions of Evangeline Parish, Mamou, Vllle Platte); Outside TV markets (portions of Evangeline Parish, Reddell, Vidrine)</t>
-  </si>
-  <si>
-    <t>VINTON</t>
-  </si>
-  <si>
-    <t>VIVIAN</t>
-  </si>
-  <si>
-    <t>WALKER (TOWN)</t>
-  </si>
-  <si>
-    <t>WASHINGTON</t>
-  </si>
-  <si>
-    <t>WASHINGTON PARISH</t>
-  </si>
-  <si>
-    <t>See BOGALUSA, LA</t>
-  </si>
-  <si>
-    <t>WATERPROOF</t>
-  </si>
-  <si>
-    <t>WELSH</t>
-  </si>
-  <si>
-    <t>West Baton Rouge Parish</t>
-  </si>
-  <si>
-    <t>West Feliciana Parish</t>
-  </si>
-  <si>
-    <t>WEST MONROE</t>
-  </si>
-  <si>
-    <t>WESTLAKE</t>
-  </si>
-  <si>
-    <t>WESTWEGO</t>
-  </si>
-  <si>
-    <t>WINN PARISH</t>
-  </si>
-  <si>
-    <t>WINNFIELD</t>
-  </si>
-  <si>
-    <t>WINNSBORO</t>
-  </si>
-  <si>
-    <t>WINNSBORO TWP.</t>
-  </si>
-  <si>
-    <t>See WINNSBORO, LA</t>
-  </si>
-  <si>
-    <t>WOODWORTH</t>
-  </si>
-  <si>
-    <t>ZACHARY</t>
-  </si>
-  <si>
-    <t>ZWOLLE</t>
-  </si>
-  <si>
-    <t>Included with Many, LA</t>
-  </si>
-  <si>
-    <t>BREAUX BRIDGE</t>
-  </si>
-  <si>
-    <t>See FERRIDAY, LA</t>
-  </si>
-  <si>
-    <t>COTTON VALLEY</t>
-  </si>
-  <si>
-    <t>ST. BERNARD PARISH</t>
-  </si>
-  <si>
-    <t>31 (portions); Below 100 (portions)</t>
-  </si>
-  <si>
-    <t>WHITE CASTLE</t>
-  </si>
-  <si>
-    <t>COTTONPORT</t>
-  </si>
-  <si>
-    <t>See SPOKANE, LA</t>
-  </si>
-  <si>
-    <t>See WEST MONROE, LA</t>
-  </si>
-  <si>
-    <t>See NATCHITOCHES, LA</t>
-  </si>
-  <si>
-    <t>See WELSH, LA</t>
-  </si>
-  <si>
-    <t>See AMITE CITY, LA</t>
-  </si>
-  <si>
-    <t>See also DESTREHAN, LA</t>
-  </si>
-  <si>
-    <t>See also SLIDELL, LA</t>
-  </si>
-  <si>
-    <t>See also THIBODAUX, LA</t>
-  </si>
-  <si>
-    <t>See also FRANKLINTON, LA</t>
-  </si>
-  <si>
-    <t>See ST. FRANCISVILLE, LA</t>
-  </si>
-  <si>
-    <t>87 (Ascension Parish &amp; Donaldsonvllle); Outside TV markets (Gramercy &amp; Lutcher)</t>
-  </si>
-  <si>
-    <t>(Mandevllle &amp; portions of St. Tammany Parish); Outside TV markets (Madisonville &amp; portions of St. Tammany Parish)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">99 (portions of Jackson Parish); Below 100 (East Hodge, portions of Jackson Parish); Outside TV /markets (Hodge, Jonesboro, North Flodge, portions of Jackson Parish), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31 (Mandevllle &amp; portions of St. Tammany Parish); Outside TV markets (Madisonville &amp; portions of St. Tammany Parish)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>87 (Henderson, portions of St. Martin Parish); Below 100 (Parks, St. Martinville, portions of St. Martin Parish)</t>
+  </si>
+  <si>
+    <t>Below 100 (portions of Evangeline Parish, Mamou, Ville Platte); Outside TV markets (portions of Evangeline Parish, Reddell, Vidrine)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1902,7 +1910,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1976,7 +1984,7 @@
         <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -2050,7 +2058,7 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -2124,7 +2132,7 @@
         <v>26</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2190,7 +2198,7 @@
         <v>2</v>
       </c>
       <c r="Y6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -2198,7 +2206,7 @@
         <v>26</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -2264,7 +2272,7 @@
         <v>29</v>
       </c>
       <c r="Y7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -2272,7 +2280,7 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -2338,7 +2346,7 @@
         <v>29</v>
       </c>
       <c r="Y8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -2346,7 +2354,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -2420,7 +2428,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -2489,7 +2497,7 @@
         <v>87</v>
       </c>
       <c r="Z10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -2497,7 +2505,7 @@
         <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -2571,7 +2579,7 @@
         <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2645,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -2711,7 +2719,7 @@
         <v>29</v>
       </c>
       <c r="Y13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -2719,7 +2727,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -2793,7 +2801,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -2867,7 +2875,7 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2933,7 +2941,7 @@
         <v>29</v>
       </c>
       <c r="Y16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:25">
@@ -2941,7 +2949,7 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3015,7 +3023,7 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -3089,7 +3097,7 @@
         <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -3163,7 +3171,7 @@
         <v>26</v>
       </c>
       <c r="B20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -3237,7 +3245,7 @@
         <v>26</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3303,7 +3311,7 @@
         <v>29</v>
       </c>
       <c r="Y21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:25">
@@ -3311,7 +3319,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -3385,7 +3393,7 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3459,7 +3467,7 @@
         <v>26</v>
       </c>
       <c r="B24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3533,7 +3541,7 @@
         <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3562,8 +3570,8 @@
       <c r="L25">
         <v>120</v>
       </c>
-      <c r="M25" t="s">
-        <v>28</v>
+      <c r="M25">
+        <v>179</v>
       </c>
       <c r="N25" t="s">
         <v>28</v>
@@ -3607,7 +3615,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -3681,7 +3689,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -3755,7 +3763,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -3818,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="X28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y28" t="s">
         <v>30</v>
@@ -3829,7 +3837,7 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -3903,7 +3911,7 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -3977,7 +3985,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -4051,7 +4059,7 @@
         <v>26</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -4117,7 +4125,7 @@
         <v>29</v>
       </c>
       <c r="Y32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:26">
@@ -4125,7 +4133,7 @@
         <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -4191,7 +4199,7 @@
         <v>29</v>
       </c>
       <c r="Y33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:26">
@@ -4199,7 +4207,7 @@
         <v>26</v>
       </c>
       <c r="B34" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -4273,7 +4281,7 @@
         <v>26</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4339,7 +4347,7 @@
         <v>5</v>
       </c>
       <c r="Y35" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:26">
@@ -4347,7 +4355,7 @@
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4421,7 +4429,7 @@
         <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -4495,7 +4503,7 @@
         <v>26</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4561,7 +4569,7 @@
         <v>31</v>
       </c>
       <c r="Z38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39" spans="1:26">
@@ -4569,7 +4577,7 @@
         <v>26</v>
       </c>
       <c r="B39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -4635,7 +4643,7 @@
         <v>3</v>
       </c>
       <c r="Y39" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
     </row>
     <row r="40" spans="1:26">
@@ -4643,7 +4651,7 @@
         <v>26</v>
       </c>
       <c r="B40" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4717,7 +4725,7 @@
         <v>26</v>
       </c>
       <c r="B41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4791,7 +4799,7 @@
         <v>26</v>
       </c>
       <c r="B42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -4857,7 +4865,7 @@
         <v>10</v>
       </c>
       <c r="Y42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:26">
@@ -4865,7 +4873,7 @@
         <v>26</v>
       </c>
       <c r="B43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -4928,7 +4936,7 @@
         <v>27</v>
       </c>
       <c r="X43" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y43" t="s">
         <v>30</v>
@@ -4939,7 +4947,7 @@
         <v>26</v>
       </c>
       <c r="B44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -5013,7 +5021,7 @@
         <v>26</v>
       </c>
       <c r="B45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -5087,7 +5095,7 @@
         <v>26</v>
       </c>
       <c r="B46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -5153,7 +5161,7 @@
         <v>29</v>
       </c>
       <c r="Y46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:26">
@@ -5161,7 +5169,7 @@
         <v>26</v>
       </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -5224,10 +5232,10 @@
         <v>21</v>
       </c>
       <c r="X47" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:26">
@@ -5235,7 +5243,7 @@
         <v>26</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -5301,7 +5309,7 @@
         <v>29</v>
       </c>
       <c r="Y48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:25">
@@ -5309,7 +5317,7 @@
         <v>26</v>
       </c>
       <c r="B49" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -5383,7 +5391,7 @@
         <v>26</v>
       </c>
       <c r="B50" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -5449,7 +5457,7 @@
         <v>29</v>
       </c>
       <c r="Y50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:25">
@@ -5457,7 +5465,7 @@
         <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -5523,7 +5531,7 @@
         <v>29</v>
       </c>
       <c r="Y51" t="s">
-        <v>164</v>
+        <v>441</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -5531,7 +5539,7 @@
         <v>26</v>
       </c>
       <c r="B52" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -5560,8 +5568,8 @@
       <c r="L52" s="1">
         <v>1068</v>
       </c>
-      <c r="M52" t="s">
-        <v>28</v>
+      <c r="M52" s="1">
+        <v>3813</v>
       </c>
       <c r="N52" t="s">
         <v>28</v>
@@ -5605,7 +5613,7 @@
         <v>26</v>
       </c>
       <c r="B53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -5679,7 +5687,7 @@
         <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -5753,7 +5761,7 @@
         <v>26</v>
       </c>
       <c r="B55" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -5819,7 +5827,7 @@
         <v>29</v>
       </c>
       <c r="Y55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:25">
@@ -5827,7 +5835,7 @@
         <v>26</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -5901,7 +5909,7 @@
         <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -5975,7 +5983,7 @@
         <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -6041,7 +6049,7 @@
         <v>10</v>
       </c>
       <c r="Y58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:25">
@@ -6049,7 +6057,7 @@
         <v>26</v>
       </c>
       <c r="B59" t="s">
-        <v>194</v>
+        <v>439</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -6073,7 +6081,7 @@
         <v>28</v>
       </c>
       <c r="K59" t="s">
-        <v>28</v>
+        <v>440</v>
       </c>
       <c r="L59" t="s">
         <v>28</v>
@@ -6123,7 +6131,7 @@
         <v>26</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -6186,10 +6194,10 @@
         <v>36</v>
       </c>
       <c r="X60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:25">
@@ -6197,7 +6205,7 @@
         <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -6220,8 +6228,8 @@
       <c r="J61" t="s">
         <v>28</v>
       </c>
-      <c r="K61" t="s">
-        <v>28</v>
+      <c r="K61">
+        <v>165</v>
       </c>
       <c r="L61" t="s">
         <v>29</v>
@@ -6271,7 +6279,7 @@
         <v>26</v>
       </c>
       <c r="B62" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -6345,7 +6353,7 @@
         <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -6408,7 +6416,7 @@
         <v>37</v>
       </c>
       <c r="X63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y63">
         <v>31</v>
@@ -6419,7 +6427,7 @@
         <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -6493,7 +6501,7 @@
         <v>26</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -6567,7 +6575,7 @@
         <v>26</v>
       </c>
       <c r="B66" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -6633,7 +6641,7 @@
         <v>29</v>
       </c>
       <c r="Y66" t="s">
-        <v>211</v>
+        <v>442</v>
       </c>
     </row>
     <row r="67" spans="1:25">
@@ -6641,7 +6649,7 @@
         <v>26</v>
       </c>
       <c r="B67" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -6715,7 +6723,7 @@
         <v>26</v>
       </c>
       <c r="B68" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -6789,7 +6797,7 @@
         <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -6855,7 +6863,7 @@
         <v>29</v>
       </c>
       <c r="Y69" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:25">
@@ -6863,7 +6871,7 @@
         <v>26</v>
       </c>
       <c r="B70" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -6929,7 +6937,7 @@
         <v>29</v>
       </c>
       <c r="Y70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="1:25">
@@ -6937,7 +6945,7 @@
         <v>26</v>
       </c>
       <c r="B71" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -7003,7 +7011,7 @@
         <v>10</v>
       </c>
       <c r="Y71" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" spans="1:25">
@@ -7011,7 +7019,7 @@
         <v>26</v>
       </c>
       <c r="B72" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -7085,7 +7093,7 @@
         <v>26</v>
       </c>
       <c r="B73" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -7159,7 +7167,7 @@
         <v>26</v>
       </c>
       <c r="B74" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -7233,7 +7241,7 @@
         <v>26</v>
       </c>
       <c r="B75" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -7307,7 +7315,7 @@
         <v>26</v>
       </c>
       <c r="B76" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -7381,7 +7389,7 @@
         <v>26</v>
       </c>
       <c r="B77" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -7444,7 +7452,7 @@
         <v>21</v>
       </c>
       <c r="X77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y77" t="s">
         <v>30</v>
@@ -7455,7 +7463,7 @@
         <v>26</v>
       </c>
       <c r="B78" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -7521,7 +7529,7 @@
         <v>10</v>
       </c>
       <c r="Y78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="79" spans="1:25">
@@ -7529,7 +7537,7 @@
         <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -7603,7 +7611,7 @@
         <v>26</v>
       </c>
       <c r="B80" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -7669,7 +7677,7 @@
         <v>2</v>
       </c>
       <c r="Y80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:25">
@@ -7677,7 +7685,7 @@
         <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -7751,7 +7759,7 @@
         <v>26</v>
       </c>
       <c r="B82" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -7817,7 +7825,7 @@
         <v>6</v>
       </c>
       <c r="Y82" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="83" spans="1:25">
@@ -7825,7 +7833,7 @@
         <v>26</v>
       </c>
       <c r="B83" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -7899,7 +7907,7 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7973,7 +7981,7 @@
         <v>26</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -8039,7 +8047,7 @@
         <v>5</v>
       </c>
       <c r="Y85" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:25">
@@ -8047,7 +8055,7 @@
         <v>26</v>
       </c>
       <c r="B86" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -8121,7 +8129,7 @@
         <v>26</v>
       </c>
       <c r="B87" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -8195,7 +8203,7 @@
         <v>26</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -8269,7 +8277,7 @@
         <v>26</v>
       </c>
       <c r="B89" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -8343,7 +8351,7 @@
         <v>26</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -8417,7 +8425,7 @@
         <v>26</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -8491,7 +8499,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -8565,7 +8573,7 @@
         <v>26</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -8631,7 +8639,7 @@
         <v>29</v>
       </c>
       <c r="Y93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:25">
@@ -8639,7 +8647,7 @@
         <v>26</v>
       </c>
       <c r="B94" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -8705,7 +8713,7 @@
         <v>29</v>
       </c>
       <c r="Y94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:25">
@@ -8713,7 +8721,7 @@
         <v>26</v>
       </c>
       <c r="B95" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8787,7 +8795,7 @@
         <v>26</v>
       </c>
       <c r="B96" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -8861,7 +8869,7 @@
         <v>26</v>
       </c>
       <c r="B97" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -8935,7 +8943,7 @@
         <v>26</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -9001,7 +9009,7 @@
         <v>29</v>
       </c>
       <c r="Y98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:25">
@@ -9009,7 +9017,7 @@
         <v>26</v>
       </c>
       <c r="B99" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -9075,7 +9083,7 @@
         <v>10</v>
       </c>
       <c r="Y99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:25">
@@ -9083,7 +9091,7 @@
         <v>26</v>
       </c>
       <c r="B100" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -9157,7 +9165,7 @@
         <v>26</v>
       </c>
       <c r="B101" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -9231,7 +9239,7 @@
         <v>26</v>
       </c>
       <c r="B102" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -9257,8 +9265,8 @@
       <c r="K102">
         <v>346</v>
       </c>
-      <c r="L102" t="s">
-        <v>28</v>
+      <c r="L102">
+        <v>834</v>
       </c>
       <c r="M102">
         <v>236</v>
@@ -9305,7 +9313,7 @@
         <v>26</v>
       </c>
       <c r="B103" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -9379,7 +9387,7 @@
         <v>26</v>
       </c>
       <c r="B104" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -9442,10 +9450,10 @@
         <v>13</v>
       </c>
       <c r="X104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:25">
@@ -9453,7 +9461,7 @@
         <v>26</v>
       </c>
       <c r="B105" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -9527,7 +9535,7 @@
         <v>26</v>
       </c>
       <c r="B106" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -9601,7 +9609,7 @@
         <v>26</v>
       </c>
       <c r="B107" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -9675,7 +9683,7 @@
         <v>26</v>
       </c>
       <c r="B108" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -9687,7 +9695,7 @@
         <v>29</v>
       </c>
       <c r="G108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H108" t="s">
         <v>29</v>
@@ -9729,7 +9737,7 @@
         <v>1</v>
       </c>
       <c r="U108" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="V108" t="s">
         <v>28</v>
@@ -9749,7 +9757,7 @@
         <v>26</v>
       </c>
       <c r="B109" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -9823,7 +9831,7 @@
         <v>26</v>
       </c>
       <c r="B110" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -9897,7 +9905,7 @@
         <v>26</v>
       </c>
       <c r="B111" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -9968,7 +9976,7 @@
         <v>26</v>
       </c>
       <c r="B112" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -10042,7 +10050,7 @@
         <v>26</v>
       </c>
       <c r="B113" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -10116,7 +10124,7 @@
         <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -10190,7 +10198,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -10253,10 +10261,10 @@
         <v>35</v>
       </c>
       <c r="X115" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y115" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="116" spans="1:25">
@@ -10264,7 +10272,7 @@
         <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -10338,7 +10346,7 @@
         <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -10412,7 +10420,7 @@
         <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -10486,7 +10494,7 @@
         <v>26</v>
       </c>
       <c r="B119" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -10560,7 +10568,7 @@
         <v>26</v>
       </c>
       <c r="B120" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -10623,10 +10631,10 @@
         <v>12</v>
       </c>
       <c r="X120" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y120" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
     </row>
     <row r="121" spans="1:25">
@@ -10634,7 +10642,7 @@
         <v>26</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -10708,7 +10716,7 @@
         <v>26</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -10782,7 +10790,7 @@
         <v>26</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -10848,7 +10856,7 @@
         <v>29</v>
       </c>
       <c r="Y123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:25">
@@ -10856,7 +10864,7 @@
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -10930,7 +10938,7 @@
         <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -11004,7 +11012,7 @@
         <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -11070,7 +11078,7 @@
         <v>29</v>
       </c>
       <c r="Y126" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:25">
@@ -11078,7 +11086,7 @@
         <v>26</v>
       </c>
       <c r="B127" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -11152,7 +11160,7 @@
         <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -11226,7 +11234,7 @@
         <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -11300,7 +11308,7 @@
         <v>26</v>
       </c>
       <c r="B130" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -11366,7 +11374,7 @@
         <v>29</v>
       </c>
       <c r="Y130" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:25">
@@ -11374,7 +11382,7 @@
         <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -11440,7 +11448,7 @@
         <v>5</v>
       </c>
       <c r="Y131" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:25">
@@ -11448,7 +11456,7 @@
         <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -11460,7 +11468,7 @@
         <v>27273</v>
       </c>
       <c r="G132" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="H132" t="s">
         <v>28</v>
@@ -11514,7 +11522,7 @@
         <v>1</v>
       </c>
       <c r="Y132" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:25">
@@ -11522,7 +11530,7 @@
         <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -11585,7 +11593,7 @@
         <v>14</v>
       </c>
       <c r="X133" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Y133" t="s">
         <v>30</v>
@@ -11596,7 +11604,7 @@
         <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -11662,7 +11670,7 @@
         <v>29</v>
       </c>
       <c r="Y134" t="s">
-        <v>404</v>
+        <v>445</v>
       </c>
     </row>
     <row r="135" spans="1:25">
@@ -11670,7 +11678,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -11744,7 +11752,7 @@
         <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -11818,7 +11826,7 @@
         <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -11892,7 +11900,7 @@
         <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -11966,7 +11974,7 @@
         <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -12040,7 +12048,7 @@
         <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -12114,7 +12122,7 @@
         <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -12188,7 +12196,7 @@
         <v>26</v>
       </c>
       <c r="B142" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -12254,7 +12262,7 @@
         <v>29</v>
       </c>
       <c r="Y142" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="143" spans="1:25">
@@ -12262,7 +12270,7 @@
         <v>26</v>
       </c>
       <c r="B143" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -12336,7 +12344,7 @@
         <v>26</v>
       </c>
       <c r="B144" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -12410,7 +12418,7 @@
         <v>26</v>
       </c>
       <c r="B145" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -12422,7 +12430,7 @@
         <v>25538</v>
       </c>
       <c r="G145" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H145" t="s">
         <v>28</v>
@@ -12476,7 +12484,7 @@
         <v>6</v>
       </c>
       <c r="Y145" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:25">
@@ -12532,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>38</v>
+        <v>437</v>
       </c>
     </row>
     <row r="150" spans="1:25">
@@ -12540,13 +12548,13 @@
         <v>26</v>
       </c>
       <c r="B150" t="s">
+        <v>44</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
         <v>45</v>
-      </c>
-      <c r="C150">
-        <v>1</v>
-      </c>
-      <c r="D150" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="151" spans="1:25">
@@ -12554,13 +12562,13 @@
         <v>26</v>
       </c>
       <c r="B151" t="s">
+        <v>48</v>
+      </c>
+      <c r="C151">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
         <v>49</v>
-      </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="152" spans="1:25">
@@ -12568,13 +12576,13 @@
         <v>26</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C152">
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="153" spans="1:25">
@@ -12582,13 +12590,13 @@
         <v>26</v>
       </c>
       <c r="B153" t="s">
+        <v>51</v>
+      </c>
+      <c r="C153">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
         <v>52</v>
-      </c>
-      <c r="C153">
-        <v>1</v>
-      </c>
-      <c r="D153" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="154" spans="1:25">
@@ -12596,13 +12604,13 @@
         <v>26</v>
       </c>
       <c r="B154" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C154">
         <v>1</v>
       </c>
       <c r="D154" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="155" spans="1:25">
@@ -12610,13 +12618,13 @@
         <v>26</v>
       </c>
       <c r="B155" t="s">
+        <v>56</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
         <v>57</v>
-      </c>
-      <c r="C155">
-        <v>1</v>
-      </c>
-      <c r="D155" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="156" spans="1:25">
@@ -12624,13 +12632,13 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
+        <v>58</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
         <v>59</v>
-      </c>
-      <c r="C156">
-        <v>1</v>
-      </c>
-      <c r="D156" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="157" spans="1:25">
@@ -12638,13 +12646,13 @@
         <v>26</v>
       </c>
       <c r="B157" t="s">
+        <v>60</v>
+      </c>
+      <c r="C157">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
         <v>61</v>
-      </c>
-      <c r="C157">
-        <v>1</v>
-      </c>
-      <c r="D157" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="158" spans="1:25">
@@ -12652,13 +12660,13 @@
         <v>26</v>
       </c>
       <c r="B158" t="s">
+        <v>65</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
         <v>66</v>
-      </c>
-      <c r="C158">
-        <v>1</v>
-      </c>
-      <c r="D158" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="159" spans="1:25">
@@ -12666,13 +12674,13 @@
         <v>26</v>
       </c>
       <c r="B159" t="s">
+        <v>67</v>
+      </c>
+      <c r="C159">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
         <v>68</v>
-      </c>
-      <c r="C159">
-        <v>1</v>
-      </c>
-      <c r="D159" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="160" spans="1:25">
@@ -12680,13 +12688,13 @@
         <v>26</v>
       </c>
       <c r="B160" t="s">
+        <v>69</v>
+      </c>
+      <c r="C160">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
         <v>70</v>
-      </c>
-      <c r="C160">
-        <v>1</v>
-      </c>
-      <c r="D160" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -12694,13 +12702,13 @@
         <v>26</v>
       </c>
       <c r="B161" t="s">
+        <v>71</v>
+      </c>
+      <c r="C161">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
         <v>72</v>
-      </c>
-      <c r="C161">
-        <v>1</v>
-      </c>
-      <c r="D161" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -12708,13 +12716,13 @@
         <v>26</v>
       </c>
       <c r="B162" t="s">
+        <v>74</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
         <v>75</v>
-      </c>
-      <c r="C162">
-        <v>1</v>
-      </c>
-      <c r="D162" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -12722,13 +12730,13 @@
         <v>26</v>
       </c>
       <c r="B163" t="s">
+        <v>76</v>
+      </c>
+      <c r="C163">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
         <v>77</v>
-      </c>
-      <c r="C163">
-        <v>1</v>
-      </c>
-      <c r="D163" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -12736,13 +12744,13 @@
         <v>26</v>
       </c>
       <c r="B164" t="s">
+        <v>81</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
         <v>82</v>
-      </c>
-      <c r="C164">
-        <v>1</v>
-      </c>
-      <c r="D164" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -12750,13 +12758,13 @@
         <v>26</v>
       </c>
       <c r="B165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C165">
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -12764,13 +12772,13 @@
         <v>26</v>
       </c>
       <c r="B166" t="s">
+        <v>84</v>
+      </c>
+      <c r="C166">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
         <v>85</v>
-      </c>
-      <c r="C166">
-        <v>1</v>
-      </c>
-      <c r="D166" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -12778,13 +12786,13 @@
         <v>26</v>
       </c>
       <c r="B167" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -12792,13 +12800,13 @@
         <v>26</v>
       </c>
       <c r="B168" t="s">
+        <v>89</v>
+      </c>
+      <c r="C168">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
         <v>90</v>
-      </c>
-      <c r="C168">
-        <v>1</v>
-      </c>
-      <c r="D168" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -12806,13 +12814,13 @@
         <v>26</v>
       </c>
       <c r="B169" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -12820,13 +12828,13 @@
         <v>26</v>
       </c>
       <c r="B170" t="s">
+        <v>92</v>
+      </c>
+      <c r="C170">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
         <v>93</v>
-      </c>
-      <c r="C170">
-        <v>1</v>
-      </c>
-      <c r="D170" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -12834,13 +12842,13 @@
         <v>26</v>
       </c>
       <c r="B171" t="s">
+        <v>96</v>
+      </c>
+      <c r="C171">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
         <v>97</v>
-      </c>
-      <c r="C171">
-        <v>1</v>
-      </c>
-      <c r="D171" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -12848,13 +12856,13 @@
         <v>26</v>
       </c>
       <c r="B172" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -12862,13 +12870,13 @@
         <v>26</v>
       </c>
       <c r="B173" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -12876,13 +12884,13 @@
         <v>26</v>
       </c>
       <c r="B174" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -12890,13 +12898,13 @@
         <v>26</v>
       </c>
       <c r="B175" t="s">
+        <v>111</v>
+      </c>
+      <c r="C175">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
         <v>112</v>
-      </c>
-      <c r="C175">
-        <v>1</v>
-      </c>
-      <c r="D175" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -12904,13 +12912,13 @@
         <v>26</v>
       </c>
       <c r="B176" t="s">
+        <v>113</v>
+      </c>
+      <c r="C176">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
         <v>114</v>
-      </c>
-      <c r="C176">
-        <v>1</v>
-      </c>
-      <c r="D176" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -12918,13 +12926,13 @@
         <v>26</v>
       </c>
       <c r="B177" t="s">
+        <v>118</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
         <v>119</v>
-      </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -12932,13 +12940,13 @@
         <v>26</v>
       </c>
       <c r="B178" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -12946,13 +12954,13 @@
         <v>26</v>
       </c>
       <c r="B179" t="s">
+        <v>128</v>
+      </c>
+      <c r="C179">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
         <v>129</v>
-      </c>
-      <c r="C179">
-        <v>1</v>
-      </c>
-      <c r="D179" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -12960,13 +12968,13 @@
         <v>26</v>
       </c>
       <c r="B180" t="s">
+        <v>130</v>
+      </c>
+      <c r="C180">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
         <v>131</v>
-      </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -12974,13 +12982,13 @@
         <v>26</v>
       </c>
       <c r="B181" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -12988,13 +12996,13 @@
         <v>26</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -13002,13 +13010,13 @@
         <v>26</v>
       </c>
       <c r="B183" t="s">
+        <v>136</v>
+      </c>
+      <c r="C183">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
         <v>137</v>
-      </c>
-      <c r="C183">
-        <v>1</v>
-      </c>
-      <c r="D183" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -13016,13 +13024,13 @@
         <v>26</v>
       </c>
       <c r="B184" t="s">
+        <v>139</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
         <v>140</v>
-      </c>
-      <c r="C184">
-        <v>1</v>
-      </c>
-      <c r="D184" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -13030,13 +13038,13 @@
         <v>26</v>
       </c>
       <c r="B185" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
         <v>142</v>
-      </c>
-      <c r="C185">
-        <v>1</v>
-      </c>
-      <c r="D185" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -13044,13 +13052,13 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
         <v>146</v>
-      </c>
-      <c r="C186">
-        <v>1</v>
-      </c>
-      <c r="D186" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -13058,13 +13066,13 @@
         <v>26</v>
       </c>
       <c r="B187" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C187">
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -13072,13 +13080,13 @@
         <v>26</v>
       </c>
       <c r="B188" t="s">
+        <v>148</v>
+      </c>
+      <c r="C188">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
         <v>149</v>
-      </c>
-      <c r="C188">
-        <v>1</v>
-      </c>
-      <c r="D188" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -13086,13 +13094,13 @@
         <v>26</v>
       </c>
       <c r="B189" t="s">
+        <v>150</v>
+      </c>
+      <c r="C189">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
         <v>151</v>
-      </c>
-      <c r="C189">
-        <v>1</v>
-      </c>
-      <c r="D189" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -13100,13 +13108,13 @@
         <v>26</v>
       </c>
       <c r="B190" t="s">
+        <v>156</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
         <v>157</v>
-      </c>
-      <c r="C190">
-        <v>1</v>
-      </c>
-      <c r="D190" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -13114,13 +13122,13 @@
         <v>26</v>
       </c>
       <c r="B191" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C191">
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -13128,13 +13136,13 @@
         <v>26</v>
       </c>
       <c r="B192" t="s">
+        <v>159</v>
+      </c>
+      <c r="C192">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
         <v>160</v>
-      </c>
-      <c r="C192">
-        <v>1</v>
-      </c>
-      <c r="D192" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -13142,13 +13150,13 @@
         <v>26</v>
       </c>
       <c r="B193" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C193">
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -13156,13 +13164,13 @@
         <v>26</v>
       </c>
       <c r="B194" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C194">
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -13170,13 +13178,13 @@
         <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C195">
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -13184,13 +13192,13 @@
         <v>26</v>
       </c>
       <c r="B196" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C196">
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -13198,13 +13206,13 @@
         <v>26</v>
       </c>
       <c r="B197" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C197">
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -13212,13 +13220,13 @@
         <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C198">
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -13226,13 +13234,13 @@
         <v>26</v>
       </c>
       <c r="B199" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -13240,13 +13248,13 @@
         <v>26</v>
       </c>
       <c r="B200" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C200">
         <v>1</v>
       </c>
       <c r="D200" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -13254,13 +13262,13 @@
         <v>26</v>
       </c>
       <c r="B201" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C201">
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -13268,13 +13276,13 @@
         <v>26</v>
       </c>
       <c r="B202" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C202">
         <v>1</v>
       </c>
       <c r="D202" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -13282,13 +13290,13 @@
         <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C203">
         <v>1</v>
       </c>
       <c r="D203" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -13296,13 +13304,13 @@
         <v>26</v>
       </c>
       <c r="B204" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C204">
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -13310,13 +13318,13 @@
         <v>26</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C205">
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -13324,13 +13332,13 @@
         <v>26</v>
       </c>
       <c r="B206" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -13338,13 +13346,13 @@
         <v>26</v>
       </c>
       <c r="B207" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -13352,13 +13360,13 @@
         <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -13366,13 +13374,13 @@
         <v>26</v>
       </c>
       <c r="B209" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C209">
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -13380,13 +13388,13 @@
         <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C210">
         <v>1</v>
       </c>
       <c r="D210" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -13394,13 +13402,13 @@
         <v>26</v>
       </c>
       <c r="B211" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C211">
         <v>1</v>
       </c>
       <c r="D211" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -13408,13 +13416,13 @@
         <v>26</v>
       </c>
       <c r="B212" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C212">
         <v>1</v>
       </c>
       <c r="D212" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -13422,13 +13430,13 @@
         <v>26</v>
       </c>
       <c r="B213" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C213">
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -13436,13 +13444,13 @@
         <v>26</v>
       </c>
       <c r="B214" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C214">
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -13450,13 +13458,13 @@
         <v>26</v>
       </c>
       <c r="B215" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C215">
         <v>1</v>
       </c>
       <c r="D215" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -13464,13 +13472,13 @@
         <v>26</v>
       </c>
       <c r="B216" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C216">
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -13478,13 +13486,13 @@
         <v>26</v>
       </c>
       <c r="B217" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C217">
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -13492,13 +13500,13 @@
         <v>26</v>
       </c>
       <c r="B218" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C218">
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -13506,13 +13514,13 @@
         <v>26</v>
       </c>
       <c r="B219" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C219">
         <v>1</v>
       </c>
       <c r="D219" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -13520,13 +13528,13 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -13534,13 +13542,13 @@
         <v>26</v>
       </c>
       <c r="B221" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C221">
         <v>1</v>
       </c>
       <c r="D221" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -13548,13 +13556,13 @@
         <v>26</v>
       </c>
       <c r="B222" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -13562,13 +13570,13 @@
         <v>26</v>
       </c>
       <c r="B223" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -13576,13 +13584,13 @@
         <v>26</v>
       </c>
       <c r="B224" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C224">
         <v>1</v>
       </c>
       <c r="D224" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -13590,13 +13598,13 @@
         <v>26</v>
       </c>
       <c r="B225" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C225">
         <v>1</v>
       </c>
       <c r="D225" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -13604,13 +13612,13 @@
         <v>26</v>
       </c>
       <c r="B226" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C226">
         <v>1</v>
       </c>
       <c r="D226" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -13618,13 +13626,13 @@
         <v>26</v>
       </c>
       <c r="B227" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -13632,13 +13640,13 @@
         <v>26</v>
       </c>
       <c r="B228" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C228">
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -13646,13 +13654,13 @@
         <v>26</v>
       </c>
       <c r="B229" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -13660,13 +13668,13 @@
         <v>26</v>
       </c>
       <c r="B230" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C230">
         <v>1</v>
       </c>
       <c r="D230" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -13674,13 +13682,13 @@
         <v>26</v>
       </c>
       <c r="B231" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C231">
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -13688,13 +13696,13 @@
         <v>26</v>
       </c>
       <c r="B232" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -13702,13 +13710,13 @@
         <v>26</v>
       </c>
       <c r="B233" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C233">
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -13716,13 +13724,13 @@
         <v>26</v>
       </c>
       <c r="B234" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C234">
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -13730,13 +13738,13 @@
         <v>26</v>
       </c>
       <c r="B235" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C235">
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -13744,13 +13752,13 @@
         <v>26</v>
       </c>
       <c r="B236" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C236">
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -13758,13 +13766,13 @@
         <v>26</v>
       </c>
       <c r="B237" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -13772,13 +13780,13 @@
         <v>26</v>
       </c>
       <c r="B238" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -13786,13 +13794,13 @@
         <v>26</v>
       </c>
       <c r="B239" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C239">
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -13800,13 +13808,13 @@
         <v>26</v>
       </c>
       <c r="B240" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -13814,13 +13822,13 @@
         <v>26</v>
       </c>
       <c r="B241" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C241">
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -13828,13 +13836,13 @@
         <v>26</v>
       </c>
       <c r="B242" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C242">
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -13842,13 +13850,13 @@
         <v>26</v>
       </c>
       <c r="B243" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C243">
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -13856,13 +13864,13 @@
         <v>26</v>
       </c>
       <c r="B244" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C244">
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -13870,13 +13878,13 @@
         <v>26</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -13884,13 +13892,13 @@
         <v>26</v>
       </c>
       <c r="B246" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -13898,13 +13906,13 @@
         <v>26</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C247">
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -13912,13 +13920,13 @@
         <v>26</v>
       </c>
       <c r="B248" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C248">
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -13926,13 +13934,13 @@
         <v>26</v>
       </c>
       <c r="B249" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C249">
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -13940,13 +13948,13 @@
         <v>26</v>
       </c>
       <c r="B250" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -13954,13 +13962,13 @@
         <v>26</v>
       </c>
       <c r="B251" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -13968,13 +13976,13 @@
         <v>26</v>
       </c>
       <c r="B252" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -13982,13 +13990,13 @@
         <v>26</v>
       </c>
       <c r="B253" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -13996,13 +14004,13 @@
         <v>26</v>
       </c>
       <c r="B254" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -14010,13 +14018,13 @@
         <v>26</v>
       </c>
       <c r="B255" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -14024,13 +14032,13 @@
         <v>26</v>
       </c>
       <c r="B256" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -14038,13 +14046,13 @@
         <v>26</v>
       </c>
       <c r="B257" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C257">
         <v>1</v>
       </c>
       <c r="D257" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -14052,13 +14060,13 @@
         <v>26</v>
       </c>
       <c r="B258" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -14066,13 +14074,13 @@
         <v>26</v>
       </c>
       <c r="B259" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -14080,13 +14088,13 @@
         <v>26</v>
       </c>
       <c r="B260" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -14094,13 +14102,13 @@
         <v>26</v>
       </c>
       <c r="B261" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -14108,13 +14116,13 @@
         <v>26</v>
       </c>
       <c r="B262" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -14122,13 +14130,13 @@
         <v>26</v>
       </c>
       <c r="B263" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -14136,13 +14144,13 @@
         <v>26</v>
       </c>
       <c r="B264" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -14150,13 +14158,13 @@
         <v>26</v>
       </c>
       <c r="B265" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -14164,13 +14172,13 @@
         <v>26</v>
       </c>
       <c r="B266" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C266">
         <v>1</v>
       </c>
       <c r="D266" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -14178,13 +14186,13 @@
         <v>26</v>
       </c>
       <c r="B267" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C267">
         <v>1</v>
       </c>
       <c r="D267" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -14192,13 +14200,13 @@
         <v>26</v>
       </c>
       <c r="B268" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C268">
         <v>1</v>
       </c>
       <c r="D268" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -14206,13 +14214,13 @@
         <v>26</v>
       </c>
       <c r="B269" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -14220,13 +14228,13 @@
         <v>26</v>
       </c>
       <c r="B270" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C270">
         <v>1</v>
       </c>
       <c r="D270" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -14234,13 +14242,13 @@
         <v>26</v>
       </c>
       <c r="B271" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C271">
         <v>1</v>
       </c>
       <c r="D271" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -14248,13 +14256,13 @@
         <v>26</v>
       </c>
       <c r="B272" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C272">
         <v>1</v>
       </c>
       <c r="D272" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -14262,13 +14270,13 @@
         <v>26</v>
       </c>
       <c r="B273" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C273">
         <v>1</v>
       </c>
       <c r="D273" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -14276,13 +14284,13 @@
         <v>26</v>
       </c>
       <c r="B274" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C274">
         <v>1</v>
       </c>
       <c r="D274" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -14290,13 +14298,13 @@
         <v>26</v>
       </c>
       <c r="B275" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C275">
         <v>1</v>
       </c>
       <c r="D275" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -14304,13 +14312,13 @@
         <v>26</v>
       </c>
       <c r="B276" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C276">
         <v>1</v>
       </c>
       <c r="D276" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -14318,13 +14326,13 @@
         <v>26</v>
       </c>
       <c r="B277" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C277">
         <v>1</v>
       </c>
       <c r="D277" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -14332,13 +14340,13 @@
         <v>26</v>
       </c>
       <c r="B278" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C278">
         <v>1</v>
       </c>
       <c r="D278" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -14346,13 +14354,13 @@
         <v>26</v>
       </c>
       <c r="B279" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C279">
         <v>1</v>
       </c>
       <c r="D279" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -14360,13 +14368,13 @@
         <v>26</v>
       </c>
       <c r="B280" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C280">
         <v>1</v>
       </c>
       <c r="D280" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -14374,13 +14382,13 @@
         <v>26</v>
       </c>
       <c r="B281" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C281">
         <v>1</v>
       </c>
       <c r="D281" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -14388,13 +14396,13 @@
         <v>26</v>
       </c>
       <c r="B282" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C282">
         <v>1</v>
       </c>
       <c r="D282" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -14402,13 +14410,13 @@
         <v>26</v>
       </c>
       <c r="B283" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C283">
         <v>1</v>
       </c>
       <c r="D283" t="s">
-        <v>353</v>
+        <v>437</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -14416,13 +14424,13 @@
         <v>26</v>
       </c>
       <c r="B284" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C284">
         <v>1</v>
       </c>
       <c r="D284" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -14430,13 +14438,13 @@
         <v>26</v>
       </c>
       <c r="B285" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C285">
         <v>1</v>
       </c>
       <c r="D285" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -14444,13 +14452,13 @@
         <v>26</v>
       </c>
       <c r="B286" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C286">
         <v>1</v>
       </c>
       <c r="D286" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -14458,13 +14466,13 @@
         <v>26</v>
       </c>
       <c r="B287" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C287">
         <v>1</v>
       </c>
       <c r="D287" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -14472,13 +14480,13 @@
         <v>26</v>
       </c>
       <c r="B288" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C288">
         <v>1</v>
       </c>
       <c r="D288" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -14486,13 +14494,13 @@
         <v>26</v>
       </c>
       <c r="B289" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C289">
         <v>1</v>
       </c>
       <c r="D289" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -14500,13 +14508,13 @@
         <v>26</v>
       </c>
       <c r="B290" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="C290">
         <v>1</v>
       </c>
       <c r="D290" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -14514,13 +14522,13 @@
         <v>26</v>
       </c>
       <c r="B291" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="C291">
         <v>1</v>
       </c>
       <c r="D291" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -14528,13 +14536,13 @@
         <v>26</v>
       </c>
       <c r="B292" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="C292">
         <v>1</v>
       </c>
       <c r="D292" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -14542,13 +14550,13 @@
         <v>26</v>
       </c>
       <c r="B293" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C293">
         <v>1</v>
       </c>
       <c r="D293" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -14556,13 +14564,13 @@
         <v>26</v>
       </c>
       <c r="B294" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C294">
         <v>1</v>
       </c>
       <c r="D294" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -14570,13 +14578,13 @@
         <v>26</v>
       </c>
       <c r="B295" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="C295">
         <v>1</v>
       </c>
       <c r="D295" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -14584,13 +14592,13 @@
         <v>26</v>
       </c>
       <c r="B296" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="C296">
         <v>1</v>
       </c>
       <c r="D296" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -14598,13 +14606,13 @@
         <v>26</v>
       </c>
       <c r="B297" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="C297">
         <v>1</v>
       </c>
       <c r="D297" t="s">
-        <v>380</v>
+        <v>438</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -14612,13 +14620,13 @@
         <v>26</v>
       </c>
       <c r="B298" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="C298">
         <v>1</v>
       </c>
       <c r="D298" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -14626,13 +14634,13 @@
         <v>26</v>
       </c>
       <c r="B299" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C299">
         <v>1</v>
       </c>
       <c r="D299" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -14640,13 +14648,13 @@
         <v>26</v>
       </c>
       <c r="B300" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C300">
         <v>1</v>
       </c>
       <c r="D300" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -14654,13 +14662,13 @@
         <v>26</v>
       </c>
       <c r="B301" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C301">
         <v>1</v>
       </c>
       <c r="D301" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -14668,13 +14676,13 @@
         <v>26</v>
       </c>
       <c r="B302" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="C302">
         <v>1</v>
       </c>
       <c r="D302" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -14682,13 +14690,13 @@
         <v>26</v>
       </c>
       <c r="B303" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C303">
         <v>1</v>
       </c>
       <c r="D303" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -14696,13 +14704,13 @@
         <v>26</v>
       </c>
       <c r="B304" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="C304">
         <v>1</v>
       </c>
       <c r="D304" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -14710,13 +14718,13 @@
         <v>26</v>
       </c>
       <c r="B305" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="C305">
         <v>1</v>
       </c>
       <c r="D305" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -14724,13 +14732,13 @@
         <v>26</v>
       </c>
       <c r="B306" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C306">
         <v>1</v>
       </c>
       <c r="D306" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -14738,13 +14746,13 @@
         <v>26</v>
       </c>
       <c r="B307" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="C307">
         <v>1</v>
       </c>
       <c r="D307" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -14752,13 +14760,13 @@
         <v>26</v>
       </c>
       <c r="B308" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C308">
         <v>1</v>
       </c>
       <c r="D308" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -14766,13 +14774,13 @@
         <v>26</v>
       </c>
       <c r="B309" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="C309">
         <v>1</v>
       </c>
       <c r="D309" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -14780,13 +14788,13 @@
         <v>26</v>
       </c>
       <c r="B310" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C310">
         <v>1</v>
       </c>
       <c r="D310" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -14794,13 +14802,13 @@
         <v>26</v>
       </c>
       <c r="B311" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C311">
         <v>1</v>
       </c>
       <c r="D311" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -14808,13 +14816,13 @@
         <v>26</v>
       </c>
       <c r="B312" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C312">
         <v>1</v>
       </c>
       <c r="D312" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -14822,13 +14830,13 @@
         <v>26</v>
       </c>
       <c r="B313" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C313">
         <v>1</v>
       </c>
       <c r="D313" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -14836,13 +14844,13 @@
         <v>26</v>
       </c>
       <c r="B314" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C314">
         <v>1</v>
       </c>
       <c r="D314" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -14850,13 +14858,13 @@
         <v>26</v>
       </c>
       <c r="B315" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C315">
         <v>1</v>
       </c>
       <c r="D315" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -14864,13 +14872,13 @@
         <v>26</v>
       </c>
       <c r="B316" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C316">
         <v>1</v>
       </c>
       <c r="D316" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -14878,13 +14886,13 @@
         <v>26</v>
       </c>
       <c r="B317" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C317">
         <v>1</v>
       </c>
       <c r="D317" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -14892,13 +14900,13 @@
         <v>26</v>
       </c>
       <c r="B318" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C318">
         <v>1</v>
       </c>
       <c r="D318" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -14906,13 +14914,13 @@
         <v>26</v>
       </c>
       <c r="B319" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C319">
         <v>1</v>
       </c>
       <c r="D319" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
     </row>
     <row r="320" spans="1:4">
@@ -14920,13 +14928,13 @@
         <v>26</v>
       </c>
       <c r="B320" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C320">
         <v>1</v>
       </c>
       <c r="D320" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
